--- a/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8524274415788627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8395100631771416</v>
+        <v>0.8395100631771415</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7547217485640311</v>
+        <v>0.7546499690711822</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8020175139443801</v>
+        <v>0.8068964717950818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7979420410761295</v>
+        <v>0.7909523655517167</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8826960408350191</v>
+        <v>0.8785953424927374</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8912004937616296</v>
+        <v>0.8909333472155361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8728766717679306</v>
+        <v>0.8686719540332737</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7573804509105598</v>
+        <v>0.7573804509105599</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8025132997341431</v>
+        <v>0.8025132997341429</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7788150533819338</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6848275488011862</v>
+        <v>0.6845649978206597</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7479647587520822</v>
+        <v>0.7490977827979407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7276258779243101</v>
+        <v>0.7342094358409673</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8239238805675092</v>
+        <v>0.8188062972330673</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8480925029522153</v>
+        <v>0.8460147422301035</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8174094544556375</v>
+        <v>0.8210031644451686</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.7603290548510538</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7669300895199209</v>
+        <v>0.7669300895199211</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6991805211073812</v>
+        <v>0.7084629219634441</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7014403058868853</v>
+        <v>0.6989387412317988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7239349671117978</v>
+        <v>0.7233205981125714</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8338576617328619</v>
+        <v>0.8304082308270802</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8136515122981419</v>
+        <v>0.8155418629406074</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8080442774461858</v>
+        <v>0.8075605140988523</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.7241155415118392</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7813494823183819</v>
+        <v>0.781349482318382</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.754218740576364</v>
+        <v>0.7542187405763638</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6271197823584935</v>
+        <v>0.6188355808902439</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7238470932077701</v>
+        <v>0.7143340428483057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7033520702859726</v>
+        <v>0.6980671581777845</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8094860781718393</v>
+        <v>0.7950146339780731</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8308825459187603</v>
+        <v>0.827338909440929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7996156564786718</v>
+        <v>0.7985465881907884</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.4363448625381066</v>
+        <v>0.4363448625381067</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4930322873587886</v>
+        <v>0.4930322873587887</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4675402173266448</v>
+        <v>0.4675402173266447</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.351732471182758</v>
+        <v>0.3576998518498636</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4345269698032644</v>
+        <v>0.4320234933870761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.418411141327812</v>
+        <v>0.4178035351868142</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5098493622601949</v>
+        <v>0.5150279560089223</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5608952888380591</v>
+        <v>0.5540793189572911</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5128614978214755</v>
+        <v>0.5144935156687123</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8051579167219176</v>
+        <v>0.8051579167219175</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8282837273783419</v>
+        <v>0.8282837273783417</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8168559283575949</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7461722757586831</v>
+        <v>0.7404531103730924</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7681897202492144</v>
+        <v>0.7698158928651578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7733054003234243</v>
+        <v>0.7712748676061377</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8669823523121829</v>
+        <v>0.8629008811867911</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8795501439613203</v>
+        <v>0.8795230801331482</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8554534422495775</v>
+        <v>0.8551388437408415</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.7430338745574123</v>
+        <v>0.7430338745574122</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.7341359213296735</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6868657663299339</v>
+        <v>0.6849610396552244</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6811776652187217</v>
+        <v>0.685995268267086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7003802185822947</v>
+        <v>0.7050932774987146</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8004053631101046</v>
+        <v>0.7949768839935145</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7759019277095146</v>
+        <v>0.7809240719410565</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7702593434298296</v>
+        <v>0.7729872999545981</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8270741251391176</v>
+        <v>0.8270741251391175</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.8925171976546615</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8591978113497899</v>
+        <v>0.8591978113497896</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7888632009641616</v>
+        <v>0.7861934226705266</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8630250064203566</v>
+        <v>0.8622787217894587</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8346279503090668</v>
+        <v>0.8340325117459051</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8606915141056537</v>
+        <v>0.8623728639216072</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9179103633373581</v>
+        <v>0.9170945530536422</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8826774457459191</v>
+        <v>0.8808763812515413</v>
       </c>
     </row>
     <row r="28">
@@ -1004,10 +1004,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.7580873081089151</v>
+        <v>0.758087308108915</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.7849595747119833</v>
+        <v>0.7849595747119832</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.7717269775152205</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7354709153955055</v>
+        <v>0.7341779410043384</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7682340038576638</v>
+        <v>0.767270846826256</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7554029725988942</v>
+        <v>0.7548995677315962</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7800727758517279</v>
+        <v>0.7805492456586409</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8019436879044435</v>
+        <v>0.8022984401502752</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7846319552925275</v>
+        <v>0.7840063236589389</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>124196</v>
+        <v>124184</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>142239</v>
+        <v>143105</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>272824</v>
+        <v>270435</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>145255</v>
+        <v>144580</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>158056</v>
+        <v>158009</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>298445</v>
+        <v>297008</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>186918</v>
+        <v>186847</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>184651</v>
+        <v>184931</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>378229</v>
+        <v>381652</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>224883</v>
+        <v>223487</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>209369</v>
+        <v>208857</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>424900</v>
+        <v>426768</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>132809</v>
+        <v>134572</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>131239</v>
+        <v>130771</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>272959</v>
+        <v>272727</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>158390</v>
+        <v>157735</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>152233</v>
+        <v>152587</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>304672</v>
+        <v>304490</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>124599</v>
+        <v>122953</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>159574</v>
+        <v>157477</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>294802</v>
+        <v>292586</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>160833</v>
+        <v>157957</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>183171</v>
+        <v>182389</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>335149</v>
+        <v>334701</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39832</v>
+        <v>40507</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>60217</v>
+        <v>59870</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>105366</v>
+        <v>105213</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>57737</v>
+        <v>58324</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>77729</v>
+        <v>76784</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>129151</v>
+        <v>129562</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>104437</v>
+        <v>103637</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>110062</v>
+        <v>110295</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>219029</v>
+        <v>218454</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>121346</v>
+        <v>120775</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>126017</v>
+        <v>126013</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>242297</v>
+        <v>242208</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>220857</v>
+        <v>220244</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>243197</v>
+        <v>244917</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>475256</v>
+        <v>478454</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>257365</v>
+        <v>255619</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>277016</v>
+        <v>278809</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>522673</v>
+        <v>524524</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>315694</v>
+        <v>314625</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>332978</v>
+        <v>332690</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>656030</v>
+        <v>655562</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>344438</v>
+        <v>345111</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>354155</v>
+        <v>353840</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>693798</v>
+        <v>692382</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1324638</v>
+        <v>1322310</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1426212</v>
+        <v>1424424</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2762928</v>
+        <v>2761087</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1404970</v>
+        <v>1405828</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1488793</v>
+        <v>1489452</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2869835</v>
+        <v>2867546</v>
       </c>
     </row>
     <row r="40">
